--- a/Task sheets/Tasks.xlsx
+++ b/Task sheets/Tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Tape Station Laptop</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
     <t>not retaining map drives</t>
   </si>
   <si>
-    <t>late test</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
     <t>2018-12-12_08:00_69 days and 16 hours left!</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
   </si>
   <si>
     <t>2018-12-31_17:00_89 days and 1 hours left!</t>
-  </si>
-  <si>
-    <t>2018-11-08_14:00_Task is past due</t>
   </si>
   <si>
     <t>work/misc</t>
@@ -470,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,22 +495,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>12.7</v>
       </c>
       <c r="E2">
-        <v>8.9</v>
+        <v>10.6</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -533,22 +521,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>10.7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
+        <v>2.9</v>
+      </c>
+      <c r="E3">
+        <v>2.7</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -559,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>9.699999999999999</v>
@@ -568,13 +556,13 @@
         <v>3.7</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -585,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -594,13 +582,13 @@
         <v>12.9</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -611,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>6.2</v>
@@ -620,13 +608,13 @@
         <v>13.1</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -637,7 +625,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>7.1</v>
@@ -646,13 +634,13 @@
         <v>5.7</v>
       </c>
       <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -663,22 +651,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>12.4</v>
+        <v>2.4</v>
       </c>
       <c r="E8">
-        <v>9.6</v>
+        <v>11.1</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -689,7 +677,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>3.4</v>
@@ -698,65 +686,13 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
         <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>13.9</v>
-      </c>
-      <c r="E10">
-        <v>6.9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>11.1</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
